--- a/examples/datasheet/Soldier.xlsx
+++ b/examples/datasheet/Soldier.xlsx
@@ -67,13 +67,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="36">
   <si>
-    <t>ID</t>
+    <t>ID
+唯一ID</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Name
+兵种名称</t>
   </si>
   <si>
-    <t>Level</t>
+    <t>Level
+等级</t>
   </si>
   <si>
     <t>#NameID</t>
@@ -82,55 +85,72 @@
     <t>#Description</t>
   </si>
   <si>
-    <t>BuildingName</t>
+    <t>BuildingName
+需要建筑</t>
   </si>
   <si>
-    <t>BuildingLevel</t>
+    <t>BuildingLevel
+建筑等级</t>
   </si>
   <si>
-    <t>RequireSpace</t>
+    <t>RequireSpace
+所占空间</t>
   </si>
   <si>
-    <t>Volume</t>
+    <t>Volume
+体积</t>
   </si>
   <si>
-    <t>UpgradeTime</t>
+    <t>UpgradeTime
+升级时间</t>
   </si>
   <si>
-    <t>UpgradeRes</t>
+    <t>UpgradeRes
+升级消耗</t>
   </si>
   <si>
-    <t>UpgradeCost</t>
+    <t>UpgradeCost
+资源消耗数量</t>
   </si>
   <si>
-    <t>ConsumeRes</t>
+    <t>ConsumeRes
+训练消耗</t>
   </si>
   <si>
-    <t>ConsumeCost</t>
+    <t>ConsumeCost
+训练消耗数量</t>
   </si>
   <si>
-    <t>ConsumeTime</t>
+    <t>ConsumeTime
+训练时间</t>
   </si>
   <si>
-    <t>Act</t>
+    <t>Act
+动作</t>
   </si>
   <si>
-    <t>Hp</t>
+    <t>Hp
+血量</t>
   </si>
   <si>
-    <t>C_BombLoad</t>
+    <t>C_BombLoad
+装弹量</t>
   </si>
   <si>
-    <t>C_AtkFrequency</t>
+    <t>C_float64_AtkFrequency
+攻击频率</t>
   </si>
   <si>
-    <t>C_AtkRange</t>
+    <t>C_float64_AtkRange
+攻击距离</t>
   </si>
   <si>
-    <t>C_MovingSpeed</t>
+    <t>C_float64_MovingSpeed
+移动速度</t>
   </si>
   <si>
-    <t>C_EnableBurn</t>
+    <t>C_EnableBurn
+开启燃烧</t>
   </si>
   <si>
     <t>Marine</t>
@@ -799,10 +819,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1142,20 +1165,20 @@
   <sheetPr/>
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomLeft" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="5.75" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="46.25" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="5" max="5" width="45.625" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="13.25" customWidth="1"/>
     <col min="8" max="8" width="13.375" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
@@ -1165,16 +1188,16 @@
     <col min="13" max="13" width="12.375" customWidth="1"/>
     <col min="14" max="14" width="13.25" customWidth="1"/>
     <col min="15" max="15" width="13.75" customWidth="1"/>
-    <col min="16" max="16" width="4.375" customWidth="1"/>
-    <col min="17" max="17" width="5.375" customWidth="1"/>
+    <col min="16" max="16" width="6" customWidth="1"/>
+    <col min="17" max="17" width="8.875" customWidth="1"/>
     <col min="18" max="18" width="12.625" customWidth="1"/>
-    <col min="19" max="19" width="15.75" customWidth="1"/>
-    <col min="20" max="20" width="11.625" customWidth="1"/>
-    <col min="21" max="21" width="15.75" customWidth="1"/>
+    <col min="19" max="19" width="22" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
+    <col min="21" max="21" width="21.625" customWidth="1"/>
     <col min="22" max="22" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" ht="57" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1184,10 +1207,10 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1243,7 +1266,7 @@
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1308,7 +1331,7 @@
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1373,7 +1396,7 @@
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1436,12 +1459,12 @@
       <c r="U4">
         <v>3.9</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1504,12 +1527,12 @@
       <c r="U5">
         <v>3.9</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1572,12 +1595,12 @@
       <c r="U6">
         <v>3.9</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -1640,12 +1663,12 @@
       <c r="U7">
         <v>3.9</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1708,12 +1731,12 @@
       <c r="U8">
         <v>3.9</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -1778,7 +1801,7 @@
       </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -1843,7 +1866,7 @@
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -1908,7 +1931,7 @@
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -1973,7 +1996,7 @@
       </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -2038,7 +2061,7 @@
       </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -2103,7 +2126,7 @@
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -2168,7 +2191,7 @@
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -2233,7 +2256,7 @@
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -2298,7 +2321,7 @@
       </c>
     </row>
     <row r="18" spans="1:21">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -2363,7 +2386,7 @@
       </c>
     </row>
     <row r="19" spans="1:21">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -2428,7 +2451,7 @@
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -2493,7 +2516,7 @@
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -2558,7 +2581,7 @@
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -2623,7 +2646,7 @@
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -2688,7 +2711,7 @@
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -2753,7 +2776,7 @@
       </c>
     </row>
     <row r="25" spans="1:21">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -2818,7 +2841,7 @@
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -2883,7 +2906,7 @@
       </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2948,7 +2971,7 @@
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -3013,7 +3036,7 @@
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -3078,7 +3101,7 @@
       </c>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -3143,7 +3166,7 @@
       </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -3208,7 +3231,7 @@
       </c>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -3273,7 +3296,7 @@
       </c>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -3338,7 +3361,7 @@
       </c>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -3403,7 +3426,7 @@
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -3468,7 +3491,7 @@
       </c>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -3533,7 +3556,7 @@
       </c>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -3598,7 +3621,7 @@
       </c>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -3663,7 +3686,7 @@
       </c>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -3728,7 +3751,7 @@
       </c>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -3793,7 +3816,7 @@
       </c>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" t="s">
